--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_131.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_131.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1868131868131868</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E/3', 'A:min', 'F']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_62</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1441647597254004</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
+          <t>[['F#:min', 'C#:min/5', 'A'], ['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.579, 17.703)]</t>
+          <t>[['F#:min', 'C#:min', 'A'], ['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(5.44, 9.1)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:23.088042', '0:00:28.208042'), ('0:00:13.393711', '0:00:17.886772')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:17.398117', '0:00:23.621065'), ('0:00:21.577709', '0:00:29.878843')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2913752913752914</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(4.83, 10.94)]</t>
+          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(43.14, 60.24)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:14.860000', '0:00:18.460000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:13.980000', '0:00:24.760000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>isophonics_152</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1291208791208791</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A/3'], ['A/3', 'E/5', 'A/3']]</t>
-        </is>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07435897435897436</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['B:7', 'E', 'A/3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648), (14.168, 18.573)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(75.58, 86.06), (0.78, 23.84)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:45.712000', '0:00:51.648000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:18.070000', '0:00:19.250000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09486607142857142</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C'], ['C', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(4.07, 7.47), (21.17, 23.45)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(80.48, 93.6), (79.98, 87.7)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:20.420000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:04:01.220000', '0:04:15.460000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2355769230769231</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[('0:00:08.340000', '0:00:12.240000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:37.019000', '0:02:44.660000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2548262548262548</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.150268336314848</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
+          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(62.48, 64.92)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:31.340000', '0:00:33.520000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:38.580000', '0:00:43.300000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>schubert-winterreise_73</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_119</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(66.06, 68.18)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.26, 17.16)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (9.78, 14.36), (44.0, 61.06), (1.54, 6.68)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(22.5, 27.52), (21.94, 25.36), (243.44, 246.98), (11.82, 16.4)]</t>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06593406593406594</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:40.240000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(122.674, 126.958)]</t>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1441176470588235</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.45</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(118.44, 121.68)]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.421247', '0:00:06.206099')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1466165413533835</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E/3', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.508294, 17.444076)]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(57.673129, 63.489727)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:38.841000', '0:00:46.833000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:08.540000', '0:00:22.560000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(23.586235, 28.578526)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(64.3, 65.72), (62.48, 64.92)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.26, 7.82), (55.68, 62.28)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.158789, 22.58999)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(10.56, 17.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(15.32, 17.86)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
